--- a/Data/Export/Common/Technique_技术.xlsx
+++ b/Data/Export/Common/Technique_技术.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE1DAE0-24C9-4B30-9437-68557FE9D71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335EA2F0-35D9-4DE8-9CA8-1215BCDA3F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32265" yWindow="1695" windowWidth="21600" windowHeight="11385" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Techniques" sheetId="36" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="109">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,6 +402,14 @@
   </si>
   <si>
     <t>可通行间道与浅滩，通行栈道时不会受到损伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aobj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1241,20 +1249,20 @@
   <dimension ref="A1:U68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.75" style="2" bestFit="1" customWidth="1"/>
@@ -1388,7 +1396,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>4</v>
@@ -1412,7 +1420,7 @@
         <v>4</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">

--- a/Data/Export/Common/Technique_技术.xlsx
+++ b/Data/Export/Common/Technique_技术.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335EA2F0-35D9-4DE8-9CA8-1215BCDA3F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E57EC90-C3C8-4F78-96C8-D397627ED430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="126">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,6 +410,73 @@
   </si>
   <si>
     <t>u16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究所需属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needAttr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabColor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签页颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>au8</t>
+  </si>
+  <si>
+    <t>255,100,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100,255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,255,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,100,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255,255,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,255,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,100,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,255,255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255,150,100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1246,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:U68"/>
+  <dimension ref="A1:Y68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="N29" sqref="N29:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1261,16 +1328,19 @@
     <col min="5" max="5" width="6.25" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="8" max="9" width="7.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -1288,32 +1358,44 @@
       <c r="G1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="L1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14" t="s">
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="7"/>
       <c r="R1" s="9"/>
       <c r="S1" s="7"/>
       <c r="T1" s="9"/>
       <c r="U1" s="7"/>
-    </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V1" s="9"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="7"/>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1325,20 +1407,24 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-    </row>
-    <row r="3" spans="1:21" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+    </row>
+    <row r="3" spans="1:25" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1358,31 +1444,43 @@
         <v>90</v>
       </c>
       <c r="H3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="L3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8" t="s">
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
-    </row>
-    <row r="4" spans="1:21" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+    </row>
+    <row r="4" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1405,25 +1503,37 @@
         <v>94</v>
       </c>
       <c r="H4" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="L4" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="N4" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="O4" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="P4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="Q4" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -1443,27 +1553,36 @@
         <v>0</v>
       </c>
       <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4">
         <v>1000</v>
       </c>
-      <c r="I5" s="4">
+      <c r="L5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="4">
         <v>2000</v>
       </c>
-      <c r="J5" s="4">
-        <v>6</v>
-      </c>
-      <c r="K5" s="4">
-        <f>IFERROR(VLOOKUP(L5,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="N5" s="4">
+        <v>3</v>
+      </c>
+      <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="T5" s="4"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1484,29 +1603,41 @@
         <v>1</v>
       </c>
       <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2</v>
+      </c>
+      <c r="K6" s="4">
         <v>2000</v>
       </c>
-      <c r="I6" s="4">
+      <c r="L6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="4">
         <v>3000</v>
       </c>
-      <c r="J6" s="4">
-        <v>9</v>
-      </c>
-      <c r="K6" s="4">
-        <f>IFERROR(VLOOKUP(L6,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+      <c r="N6" s="4">
+        <v>4</v>
+      </c>
+      <c r="O6" s="4">
+        <f>IFERROR(VLOOKUP(P6,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>1</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="T6" s="4"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1526,29 +1657,41 @@
         <v>2</v>
       </c>
       <c r="H7" s="4">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2</v>
+      </c>
+      <c r="K7" s="4">
         <v>3000</v>
       </c>
-      <c r="I7" s="4">
+      <c r="L7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="4">
         <v>5000</v>
       </c>
-      <c r="J7" s="4">
-        <v>15</v>
-      </c>
-      <c r="K7" s="4">
-        <f>IFERROR(VLOOKUP(L7,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
-        <v>2</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="N7" s="4">
+        <v>6</v>
+      </c>
+      <c r="O7" s="4">
+        <f>IFERROR(VLOOKUP(P7,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+        <v>2</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="T7" s="4"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="X7" s="4"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1568,29 +1711,41 @@
         <v>3</v>
       </c>
       <c r="H8" s="4">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2</v>
+      </c>
+      <c r="K8" s="4">
         <v>5000</v>
       </c>
-      <c r="I8" s="4">
+      <c r="L8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" s="4">
         <v>8000</v>
       </c>
-      <c r="J8" s="4">
-        <v>24</v>
-      </c>
-      <c r="K8" s="4">
-        <f>IFERROR(VLOOKUP(L8,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
-        <v>3</v>
-      </c>
-      <c r="L8" s="4" t="s">
+      <c r="N8" s="4">
+        <v>9</v>
+      </c>
+      <c r="O8" s="4">
+        <f>IFERROR(VLOOKUP(P8,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+        <v>3</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="X8" s="4"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -1610,27 +1765,36 @@
         <v>0</v>
       </c>
       <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2</v>
+      </c>
+      <c r="K9" s="4">
         <v>1000</v>
       </c>
-      <c r="I9" s="4">
+      <c r="L9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" s="4">
         <v>2000</v>
       </c>
-      <c r="J9" s="4">
-        <v>6</v>
-      </c>
-      <c r="K9" s="4">
-        <f>IFERROR(VLOOKUP(L9,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="N9" s="4">
+        <v>3</v>
+      </c>
+      <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="T9" s="4"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -1650,29 +1814,41 @@
         <v>1</v>
       </c>
       <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2</v>
+      </c>
+      <c r="K10" s="4">
         <v>2000</v>
       </c>
-      <c r="I10" s="4">
+      <c r="L10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" s="4">
         <v>3000</v>
       </c>
-      <c r="J10" s="4">
-        <v>9</v>
-      </c>
-      <c r="K10" s="4">
-        <f>IFERROR(VLOOKUP(L10,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+      <c r="N10" s="4">
+        <v>4</v>
+      </c>
+      <c r="O10" s="4">
+        <f>IFERROR(VLOOKUP(P10,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>5</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="T10" s="4"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="X10" s="4"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -1692,29 +1868,41 @@
         <v>2</v>
       </c>
       <c r="H11" s="4">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2</v>
+      </c>
+      <c r="K11" s="4">
         <v>3000</v>
       </c>
-      <c r="I11" s="4">
+      <c r="L11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" s="4">
         <v>5000</v>
       </c>
-      <c r="J11" s="4">
-        <v>15</v>
-      </c>
-      <c r="K11" s="4">
-        <f>IFERROR(VLOOKUP(L11,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+      <c r="N11" s="4">
         <v>6</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="O11" s="4">
+        <f>IFERROR(VLOOKUP(P11,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="T11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -1734,29 +1922,41 @@
         <v>3</v>
       </c>
       <c r="H12" s="4">
+        <v>3</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>2</v>
+      </c>
+      <c r="K12" s="4">
         <v>5000</v>
       </c>
-      <c r="I12" s="4">
+      <c r="L12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" s="4">
         <v>8000</v>
       </c>
-      <c r="J12" s="4">
-        <v>24</v>
-      </c>
-      <c r="K12" s="4">
-        <f>IFERROR(VLOOKUP(L12,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+      <c r="N12" s="4">
+        <v>9</v>
+      </c>
+      <c r="O12" s="4">
+        <f>IFERROR(VLOOKUP(P12,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>7</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="P12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="T12" s="4"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="X12" s="4"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -1776,27 +1976,36 @@
         <v>0</v>
       </c>
       <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4">
         <v>1000</v>
       </c>
-      <c r="I13" s="4">
+      <c r="L13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" s="4">
         <v>2000</v>
       </c>
-      <c r="J13" s="4">
-        <v>6</v>
-      </c>
-      <c r="K13" s="4">
-        <f>IFERROR(VLOOKUP(L13,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="N13" s="4">
+        <v>3</v>
+      </c>
+      <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="T13" s="4"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="X13" s="4"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -1816,29 +2025,41 @@
         <v>1</v>
       </c>
       <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>2</v>
+      </c>
+      <c r="J14" s="4">
+        <v>2</v>
+      </c>
+      <c r="K14" s="4">
         <v>2000</v>
       </c>
-      <c r="I14" s="4">
+      <c r="L14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M14" s="4">
         <v>3000</v>
       </c>
-      <c r="J14" s="4">
+      <c r="N14" s="4">
+        <v>4</v>
+      </c>
+      <c r="O14" s="4">
+        <f>IFERROR(VLOOKUP(P14,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>9</v>
       </c>
-      <c r="K14" s="4">
-        <f>IFERROR(VLOOKUP(L14,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
-        <v>9</v>
-      </c>
-      <c r="L14" s="4" t="s">
+      <c r="P14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="T14" s="4"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="X14" s="4"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -1858,29 +2079,41 @@
         <v>2</v>
       </c>
       <c r="H15" s="4">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2</v>
+      </c>
+      <c r="J15" s="4">
+        <v>2</v>
+      </c>
+      <c r="K15" s="4">
         <v>3000</v>
       </c>
-      <c r="I15" s="4">
+      <c r="L15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" s="4">
         <v>5000</v>
       </c>
-      <c r="J15" s="4">
-        <v>15</v>
-      </c>
-      <c r="K15" s="4">
-        <f>IFERROR(VLOOKUP(L15,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+      <c r="N15" s="4">
+        <v>6</v>
+      </c>
+      <c r="O15" s="4">
+        <f>IFERROR(VLOOKUP(P15,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>10</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="P15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="T15" s="4"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="X15" s="4"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -1900,29 +2133,41 @@
         <v>3</v>
       </c>
       <c r="H16" s="4">
+        <v>3</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2</v>
+      </c>
+      <c r="J16" s="4">
+        <v>2</v>
+      </c>
+      <c r="K16" s="4">
         <v>5000</v>
       </c>
-      <c r="I16" s="4">
+      <c r="L16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M16" s="4">
         <v>8000</v>
       </c>
-      <c r="J16" s="4">
-        <v>24</v>
-      </c>
-      <c r="K16" s="4">
-        <f>IFERROR(VLOOKUP(L16,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+      <c r="N16" s="4">
+        <v>9</v>
+      </c>
+      <c r="O16" s="4">
+        <f>IFERROR(VLOOKUP(P16,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>11</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="T16" s="4"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="X16" s="4"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -1942,27 +2187,36 @@
         <v>0</v>
       </c>
       <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>3</v>
+      </c>
+      <c r="J17" s="4">
+        <v>2</v>
+      </c>
+      <c r="K17" s="4">
         <v>1000</v>
       </c>
-      <c r="I17" s="4">
+      <c r="L17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M17" s="4">
         <v>2000</v>
       </c>
-      <c r="J17" s="4">
-        <v>6</v>
-      </c>
-      <c r="K17" s="4">
-        <f>IFERROR(VLOOKUP(L17,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+      <c r="N17" s="4">
+        <v>3</v>
+      </c>
+      <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="T17" s="4"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="X17" s="4"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -1982,29 +2236,41 @@
         <v>1</v>
       </c>
       <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>3</v>
+      </c>
+      <c r="J18" s="4">
+        <v>2</v>
+      </c>
+      <c r="K18" s="4">
         <v>2000</v>
       </c>
-      <c r="I18" s="4">
+      <c r="L18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M18" s="4">
         <v>3000</v>
       </c>
-      <c r="J18" s="4">
-        <v>9</v>
-      </c>
-      <c r="K18" s="4">
-        <f>IFERROR(VLOOKUP(L18,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+      <c r="N18" s="4">
+        <v>4</v>
+      </c>
+      <c r="O18" s="4">
+        <f>IFERROR(VLOOKUP(P18,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>13</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="P18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="T18" s="4"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="X18" s="4"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -2024,29 +2290,41 @@
         <v>2</v>
       </c>
       <c r="H19" s="4">
+        <v>2</v>
+      </c>
+      <c r="I19" s="4">
+        <v>3</v>
+      </c>
+      <c r="J19" s="4">
+        <v>2</v>
+      </c>
+      <c r="K19" s="4">
         <v>3000</v>
       </c>
-      <c r="I19" s="4">
+      <c r="L19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M19" s="4">
         <v>5000</v>
       </c>
-      <c r="J19" s="4">
-        <v>15</v>
-      </c>
-      <c r="K19" s="4">
-        <f>IFERROR(VLOOKUP(L19,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+      <c r="N19" s="4">
+        <v>6</v>
+      </c>
+      <c r="O19" s="4">
+        <f>IFERROR(VLOOKUP(P19,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>14</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="P19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="T19" s="4"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="X19" s="4"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -2066,29 +2344,41 @@
         <v>3</v>
       </c>
       <c r="H20" s="4">
+        <v>3</v>
+      </c>
+      <c r="I20" s="4">
+        <v>3</v>
+      </c>
+      <c r="J20" s="4">
+        <v>2</v>
+      </c>
+      <c r="K20" s="4">
         <v>5000</v>
       </c>
-      <c r="I20" s="4">
+      <c r="L20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M20" s="4">
         <v>8000</v>
       </c>
-      <c r="J20" s="4">
-        <v>24</v>
-      </c>
-      <c r="K20" s="4">
-        <f>IFERROR(VLOOKUP(L20,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+      <c r="N20" s="4">
+        <v>9</v>
+      </c>
+      <c r="O20" s="4">
+        <f>IFERROR(VLOOKUP(P20,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>15</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="P20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="T20" s="4"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="X20" s="4"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -2108,27 +2398,36 @@
         <v>0</v>
       </c>
       <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>4</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
         <v>1000</v>
       </c>
-      <c r="I21" s="4">
+      <c r="L21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M21" s="4">
         <v>2000</v>
       </c>
-      <c r="J21" s="4">
-        <v>6</v>
-      </c>
-      <c r="K21" s="4">
-        <f>IFERROR(VLOOKUP(L21,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+      <c r="N21" s="4">
+        <v>3</v>
+      </c>
+      <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="T21" s="4"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="X21" s="4"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -2148,29 +2447,41 @@
         <v>1</v>
       </c>
       <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>4</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
         <v>2000</v>
       </c>
-      <c r="I22" s="4">
+      <c r="L22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M22" s="4">
         <v>3000</v>
       </c>
-      <c r="J22" s="4">
-        <v>10</v>
-      </c>
-      <c r="K22" s="4">
-        <f>IFERROR(VLOOKUP(L22,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+      <c r="N22" s="4">
+        <v>4</v>
+      </c>
+      <c r="O22" s="4">
+        <f>IFERROR(VLOOKUP(P22,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>17</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="P22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="T22" s="4"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="X22" s="4"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -2190,29 +2501,41 @@
         <v>2</v>
       </c>
       <c r="H23" s="4">
+        <v>2</v>
+      </c>
+      <c r="I23" s="4">
+        <v>4</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
         <v>3000</v>
       </c>
-      <c r="I23" s="4">
+      <c r="L23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M23" s="4">
         <v>5000</v>
       </c>
-      <c r="J23" s="4">
-        <v>15</v>
-      </c>
-      <c r="K23" s="4">
-        <f>IFERROR(VLOOKUP(L23,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+      <c r="N23" s="4">
+        <v>6</v>
+      </c>
+      <c r="O23" s="4">
+        <f>IFERROR(VLOOKUP(P23,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>18</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="P23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="T23" s="4"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="X23" s="4"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -2232,29 +2555,41 @@
         <v>3</v>
       </c>
       <c r="H24" s="4">
+        <v>3</v>
+      </c>
+      <c r="I24" s="4">
+        <v>4</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
         <v>5000</v>
       </c>
-      <c r="I24" s="4">
+      <c r="L24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M24" s="4">
         <v>8000</v>
       </c>
-      <c r="J24" s="4">
-        <v>24</v>
-      </c>
-      <c r="K24" s="4">
-        <f>IFERROR(VLOOKUP(L24,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+      <c r="N24" s="4">
+        <v>9</v>
+      </c>
+      <c r="O24" s="4">
+        <f>IFERROR(VLOOKUP(P24,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>19</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="P24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="T24" s="4"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="X24" s="4"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -2274,27 +2609,36 @@
         <v>0</v>
       </c>
       <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>5</v>
+      </c>
+      <c r="J25" s="4">
+        <v>3</v>
+      </c>
+      <c r="K25" s="4">
         <v>1000</v>
       </c>
-      <c r="I25" s="4">
+      <c r="L25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M25" s="4">
         <v>2000</v>
       </c>
-      <c r="J25" s="4">
-        <v>6</v>
-      </c>
-      <c r="K25" s="4">
-        <f>IFERROR(VLOOKUP(L25,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
+      <c r="N25" s="4">
+        <v>3</v>
+      </c>
+      <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="T25" s="4"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="X25" s="4"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -2314,29 +2658,41 @@
         <v>1</v>
       </c>
       <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4">
+        <v>5</v>
+      </c>
+      <c r="J26" s="4">
+        <v>3</v>
+      </c>
+      <c r="K26" s="4">
         <v>2000</v>
       </c>
-      <c r="I26" s="4">
+      <c r="L26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M26" s="4">
         <v>3000</v>
       </c>
-      <c r="J26" s="4">
-        <v>9</v>
-      </c>
-      <c r="K26" s="4">
-        <f>IFERROR(VLOOKUP(L26,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+      <c r="N26" s="4">
+        <v>4</v>
+      </c>
+      <c r="O26" s="4">
+        <f>IFERROR(VLOOKUP(P26,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>21</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="P26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="T26" s="4"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="X26" s="4"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B27" s="4">
         <v>23</v>
       </c>
@@ -2356,29 +2712,41 @@
         <v>2</v>
       </c>
       <c r="H27" s="4">
+        <v>2</v>
+      </c>
+      <c r="I27" s="4">
+        <v>5</v>
+      </c>
+      <c r="J27" s="4">
+        <v>3</v>
+      </c>
+      <c r="K27" s="4">
         <v>3000</v>
       </c>
-      <c r="I27" s="4">
+      <c r="L27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M27" s="4">
         <v>5000</v>
       </c>
-      <c r="J27" s="4">
-        <v>15</v>
-      </c>
-      <c r="K27" s="4">
-        <f>IFERROR(VLOOKUP(L27,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+      <c r="N27" s="4">
+        <v>6</v>
+      </c>
+      <c r="O27" s="4">
+        <f>IFERROR(VLOOKUP(P27,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>22</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="P27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="T27" s="4"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="X27" s="4"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B28" s="4">
         <v>24</v>
       </c>
@@ -2398,29 +2766,41 @@
         <v>3</v>
       </c>
       <c r="H28" s="4">
+        <v>3</v>
+      </c>
+      <c r="I28" s="4">
+        <v>5</v>
+      </c>
+      <c r="J28" s="4">
+        <v>3</v>
+      </c>
+      <c r="K28" s="4">
         <v>5000</v>
       </c>
-      <c r="I28" s="4">
+      <c r="L28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M28" s="4">
         <v>8000</v>
       </c>
-      <c r="J28" s="4">
-        <v>24</v>
-      </c>
-      <c r="K28" s="4">
-        <f>IFERROR(VLOOKUP(L28,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+      <c r="N28" s="4">
+        <v>9</v>
+      </c>
+      <c r="O28" s="4">
+        <f>IFERROR(VLOOKUP(P28,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>23</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="P28" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="T28" s="4"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="X28" s="4"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <v>25</v>
       </c>
@@ -2440,27 +2820,36 @@
         <v>0</v>
       </c>
       <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>6</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4">
         <v>1000</v>
       </c>
-      <c r="I29" s="4">
+      <c r="L29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M29" s="4">
         <v>2000</v>
       </c>
-      <c r="J29" s="4">
-        <v>6</v>
-      </c>
-      <c r="K29" s="4">
-        <f>IFERROR(VLOOKUP(L29,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
+      <c r="N29" s="4">
+        <v>4</v>
+      </c>
+      <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="T29" s="4"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="X29" s="4"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <v>26</v>
       </c>
@@ -2480,29 +2869,41 @@
         <v>1</v>
       </c>
       <c r="H30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4">
+        <v>6</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4">
         <v>2000</v>
       </c>
-      <c r="I30" s="4">
+      <c r="L30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M30" s="4">
         <v>3000</v>
       </c>
-      <c r="J30" s="4">
-        <v>9</v>
-      </c>
-      <c r="K30" s="4">
-        <f>IFERROR(VLOOKUP(L30,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+      <c r="N30" s="4">
+        <v>5</v>
+      </c>
+      <c r="O30" s="4">
+        <f>IFERROR(VLOOKUP(P30,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>25</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="P30" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="T30" s="4"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="X30" s="4"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B31" s="4">
         <v>27</v>
       </c>
@@ -2522,29 +2923,41 @@
         <v>2</v>
       </c>
       <c r="H31" s="4">
+        <v>2</v>
+      </c>
+      <c r="I31" s="4">
+        <v>6</v>
+      </c>
+      <c r="J31" s="4">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4">
         <v>3000</v>
       </c>
-      <c r="I31" s="4">
+      <c r="L31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M31" s="4">
         <v>5000</v>
       </c>
-      <c r="J31" s="4">
-        <v>15</v>
-      </c>
-      <c r="K31" s="4">
-        <f>IFERROR(VLOOKUP(L31,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+      <c r="N31" s="4">
+        <v>7</v>
+      </c>
+      <c r="O31" s="4">
+        <f>IFERROR(VLOOKUP(P31,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>26</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="P31" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="T31" s="4"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="X31" s="4"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B32" s="4">
         <v>28</v>
       </c>
@@ -2564,29 +2977,41 @@
         <v>3</v>
       </c>
       <c r="H32" s="4">
+        <v>3</v>
+      </c>
+      <c r="I32" s="4">
+        <v>6</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4">
         <v>5000</v>
       </c>
-      <c r="I32" s="4">
+      <c r="L32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M32" s="4">
         <v>8000</v>
       </c>
-      <c r="J32" s="4">
-        <v>24</v>
-      </c>
-      <c r="K32" s="4">
-        <f>IFERROR(VLOOKUP(L32,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+      <c r="N32" s="4">
+        <v>10</v>
+      </c>
+      <c r="O32" s="4">
+        <f>IFERROR(VLOOKUP(P32,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>27</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="P32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="T32" s="4"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="X32" s="4"/>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B33" s="4">
         <v>29</v>
       </c>
@@ -2606,27 +3031,36 @@
         <v>0</v>
       </c>
       <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>7</v>
+      </c>
+      <c r="J33" s="4">
+        <v>3</v>
+      </c>
+      <c r="K33" s="4">
         <v>1000</v>
       </c>
-      <c r="I33" s="4">
+      <c r="L33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M33" s="4">
         <v>2000</v>
       </c>
-      <c r="J33" s="4">
-        <v>6</v>
-      </c>
-      <c r="K33" s="4">
-        <f>IFERROR(VLOOKUP(L33,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
+      <c r="N33" s="4">
+        <v>3</v>
+      </c>
+      <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="T33" s="4"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="X33" s="4"/>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
         <v>30</v>
       </c>
@@ -2646,29 +3080,41 @@
         <v>1</v>
       </c>
       <c r="H34" s="4">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4">
+        <v>7</v>
+      </c>
+      <c r="J34" s="4">
+        <v>3</v>
+      </c>
+      <c r="K34" s="4">
         <v>2000</v>
       </c>
-      <c r="I34" s="4">
+      <c r="L34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M34" s="4">
         <v>3000</v>
       </c>
-      <c r="J34" s="4">
-        <v>9</v>
-      </c>
-      <c r="K34" s="4">
-        <f>IFERROR(VLOOKUP(L34,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+      <c r="N34" s="4">
+        <v>4</v>
+      </c>
+      <c r="O34" s="4">
+        <f>IFERROR(VLOOKUP(P34,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>29</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="P34" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="T34" s="4"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="X34" s="4"/>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B35" s="4">
         <v>31</v>
       </c>
@@ -2688,29 +3134,41 @@
         <v>2</v>
       </c>
       <c r="H35" s="4">
+        <v>2</v>
+      </c>
+      <c r="I35" s="4">
+        <v>7</v>
+      </c>
+      <c r="J35" s="4">
+        <v>3</v>
+      </c>
+      <c r="K35" s="4">
         <v>3000</v>
       </c>
-      <c r="I35" s="4">
+      <c r="L35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M35" s="4">
         <v>5000</v>
       </c>
-      <c r="J35" s="4">
-        <v>15</v>
-      </c>
-      <c r="K35" s="4">
-        <f>IFERROR(VLOOKUP(L35,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+      <c r="N35" s="4">
+        <v>6</v>
+      </c>
+      <c r="O35" s="4">
+        <f>IFERROR(VLOOKUP(P35,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>30</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="P35" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="T35" s="4"/>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="X35" s="4"/>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
         <v>32</v>
       </c>
@@ -2730,29 +3188,41 @@
         <v>3</v>
       </c>
       <c r="H36" s="4">
+        <v>3</v>
+      </c>
+      <c r="I36" s="4">
+        <v>7</v>
+      </c>
+      <c r="J36" s="4">
+        <v>3</v>
+      </c>
+      <c r="K36" s="4">
         <v>5000</v>
       </c>
-      <c r="I36" s="4">
+      <c r="L36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M36" s="4">
         <v>8000</v>
       </c>
-      <c r="J36" s="4">
-        <v>24</v>
-      </c>
-      <c r="K36" s="4">
-        <f>IFERROR(VLOOKUP(L36,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+      <c r="N36" s="4">
+        <v>9</v>
+      </c>
+      <c r="O36" s="4">
+        <f>IFERROR(VLOOKUP(P36,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>31</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="P36" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="T36" s="4"/>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="X36" s="4"/>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B37" s="4">
         <v>33</v>
       </c>
@@ -2772,27 +3242,36 @@
         <v>0</v>
       </c>
       <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>8</v>
+      </c>
+      <c r="J37" s="4">
+        <v>4</v>
+      </c>
+      <c r="K37" s="4">
         <v>1000</v>
       </c>
-      <c r="I37" s="4">
+      <c r="L37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M37" s="4">
         <v>2000</v>
       </c>
-      <c r="J37" s="4">
-        <v>6</v>
-      </c>
-      <c r="K37" s="4">
-        <f>IFERROR(VLOOKUP(L37,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
+      <c r="N37" s="4">
+        <v>4</v>
+      </c>
+      <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="T37" s="4"/>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="X37" s="4"/>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B38" s="4">
         <v>34</v>
       </c>
@@ -2812,29 +3291,41 @@
         <v>1</v>
       </c>
       <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4">
+        <v>8</v>
+      </c>
+      <c r="J38" s="4">
+        <v>4</v>
+      </c>
+      <c r="K38" s="4">
         <v>2000</v>
       </c>
-      <c r="I38" s="4">
+      <c r="L38" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M38" s="4">
         <v>3000</v>
       </c>
-      <c r="J38" s="4">
-        <v>9</v>
-      </c>
-      <c r="K38" s="4">
-        <f>IFERROR(VLOOKUP(L38,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+      <c r="N38" s="4">
+        <v>5</v>
+      </c>
+      <c r="O38" s="4">
+        <f>IFERROR(VLOOKUP(P38,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>33</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="P38" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="T38" s="4"/>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="X38" s="4"/>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B39" s="4">
         <v>35</v>
       </c>
@@ -2854,29 +3345,41 @@
         <v>2</v>
       </c>
       <c r="H39" s="4">
+        <v>2</v>
+      </c>
+      <c r="I39" s="4">
+        <v>8</v>
+      </c>
+      <c r="J39" s="4">
+        <v>4</v>
+      </c>
+      <c r="K39" s="4">
         <v>3000</v>
       </c>
-      <c r="I39" s="4">
+      <c r="L39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M39" s="4">
         <v>5000</v>
       </c>
-      <c r="J39" s="4">
-        <v>15</v>
-      </c>
-      <c r="K39" s="4">
-        <f>IFERROR(VLOOKUP(L39,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+      <c r="N39" s="4">
+        <v>7</v>
+      </c>
+      <c r="O39" s="4">
+        <f>IFERROR(VLOOKUP(P39,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>34</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="P39" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="T39" s="4"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="X39" s="4"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
         <v>36</v>
       </c>
@@ -2896,286 +3399,298 @@
         <v>3</v>
       </c>
       <c r="H40" s="4">
+        <v>3</v>
+      </c>
+      <c r="I40" s="4">
+        <v>8</v>
+      </c>
+      <c r="J40" s="4">
+        <v>4</v>
+      </c>
+      <c r="K40" s="4">
         <v>5000</v>
       </c>
-      <c r="I40" s="4">
+      <c r="L40" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M40" s="4">
         <v>8000</v>
       </c>
-      <c r="J40" s="4">
-        <v>24</v>
-      </c>
-      <c r="K40" s="4">
-        <f>IFERROR(VLOOKUP(L40,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
+      <c r="N40" s="4">
+        <v>10</v>
+      </c>
+      <c r="O40" s="4">
+        <f>IFERROR(VLOOKUP(P40,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>35</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="P40" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="T40" s="4"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="X40" s="4"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.15">
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
+      <c r="M41" s="6"/>
       <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="T41" s="4"/>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="X41" s="4"/>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.15">
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
+      <c r="M42" s="6"/>
       <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="T42" s="4"/>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="X42" s="4"/>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.15">
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
+      <c r="M43" s="6"/>
       <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="T43" s="4"/>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="X43" s="4"/>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.15">
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
+      <c r="M44" s="6"/>
       <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
       <c r="T44" s="4"/>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="X44" s="4"/>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.15">
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
+      <c r="M45" s="6"/>
       <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="T45" s="4"/>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="X45" s="4"/>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.15">
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
+      <c r="M46" s="6"/>
       <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
       <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
       <c r="T46" s="4"/>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V46" s="4"/>
+      <c r="X46" s="4"/>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.15">
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.15">
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-    </row>
-    <row r="49" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+    </row>
+    <row r="49" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-    </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+    </row>
+    <row r="50" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-    </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+    </row>
+    <row r="51" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-    </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+    </row>
+    <row r="52" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-    </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+    </row>
+    <row r="53" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-    </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+    </row>
+    <row r="54" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-    </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+    </row>
+    <row r="55" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-    </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+    </row>
+    <row r="56" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-    </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+    </row>
+    <row r="57" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-    </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+    </row>
+    <row r="58" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-    </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+    </row>
+    <row r="59" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-    </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+    </row>
+    <row r="60" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-    </row>
-    <row r="61" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+    </row>
+    <row r="61" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-    </row>
-    <row r="62" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+    </row>
+    <row r="62" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-    </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+    </row>
+    <row r="63" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-    </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+    </row>
+    <row r="64" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-    </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+    </row>
+    <row r="65" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-    </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+    </row>
+    <row r="66" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-    </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+    </row>
+    <row r="67" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-    </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+    </row>
+    <row r="68" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/Export/Common/Technique_技术.xlsx
+++ b/Data/Export/Common/Technique_技术.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E57EC90-C3C8-4F78-96C8-D397627ED430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD7BF93-F313-4D7C-9381-90A302A0F29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Techniques" sheetId="36" r:id="rId1"/>
@@ -1316,31 +1316,31 @@
   <dimension ref="A1:Y68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29:N32"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.36328125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -1395,7 +1395,7 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="7"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1424,7 +1424,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:25" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1480,7 +1480,7 @@
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
     </row>
-    <row r="4" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" s="4">
         <v>1000</v>
@@ -1582,7 +1582,7 @@
       <c r="V5" s="4"/>
       <c r="X5" s="4"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="4">
         <v>2000</v>
@@ -1637,7 +1637,7 @@
       <c r="V6" s="4"/>
       <c r="X6" s="4"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" s="4">
         <v>3000</v>
@@ -1691,7 +1691,7 @@
       <c r="V7" s="4"/>
       <c r="X7" s="4"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" s="4">
         <v>5000</v>
@@ -1745,7 +1745,7 @@
       <c r="V8" s="4"/>
       <c r="X8" s="4"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" s="4">
         <v>1000</v>
@@ -1794,7 +1794,7 @@
       <c r="V9" s="4"/>
       <c r="X9" s="4"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" s="4">
         <v>2000</v>
@@ -1848,7 +1848,7 @@
       <c r="V10" s="4"/>
       <c r="X10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" s="4">
         <v>3000</v>
@@ -1902,7 +1902,7 @@
       <c r="V11" s="4"/>
       <c r="X11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" s="4">
         <v>5000</v>
@@ -1956,7 +1956,7 @@
       <c r="V12" s="4"/>
       <c r="X12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" s="4">
         <v>1000</v>
@@ -2005,7 +2005,7 @@
       <c r="V13" s="4"/>
       <c r="X13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" s="4">
         <v>2000</v>
@@ -2059,7 +2059,7 @@
       <c r="V14" s="4"/>
       <c r="X14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" s="4">
         <v>3000</v>
@@ -2113,7 +2113,7 @@
       <c r="V15" s="4"/>
       <c r="X15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" s="4">
         <v>5000</v>
@@ -2167,7 +2167,7 @@
       <c r="V16" s="4"/>
       <c r="X16" s="4"/>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" s="4">
         <v>1000</v>
@@ -2216,7 +2216,7 @@
       <c r="V17" s="4"/>
       <c r="X17" s="4"/>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" s="4">
         <v>2000</v>
@@ -2270,7 +2270,7 @@
       <c r="V18" s="4"/>
       <c r="X18" s="4"/>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>3</v>
       </c>
       <c r="J19" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" s="4">
         <v>3000</v>
@@ -2324,7 +2324,7 @@
       <c r="V19" s="4"/>
       <c r="X19" s="4"/>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>3</v>
       </c>
       <c r="J20" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" s="4">
         <v>5000</v>
@@ -2378,7 +2378,7 @@
       <c r="V20" s="4"/>
       <c r="X20" s="4"/>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>4</v>
       </c>
       <c r="J21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="4">
         <v>1000</v>
@@ -2427,7 +2427,7 @@
       <c r="V21" s="4"/>
       <c r="X21" s="4"/>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>4</v>
       </c>
       <c r="J22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="4">
         <v>2000</v>
@@ -2481,7 +2481,7 @@
       <c r="V22" s="4"/>
       <c r="X22" s="4"/>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>4</v>
       </c>
       <c r="J23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="4">
         <v>3000</v>
@@ -2535,7 +2535,7 @@
       <c r="V23" s="4"/>
       <c r="X23" s="4"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>4</v>
       </c>
       <c r="J24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="4">
         <v>5000</v>
@@ -2589,7 +2589,7 @@
       <c r="V24" s="4"/>
       <c r="X24" s="4"/>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>5</v>
       </c>
       <c r="J25" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K25" s="4">
         <v>1000</v>
@@ -2638,7 +2638,7 @@
       <c r="V25" s="4"/>
       <c r="X25" s="4"/>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>5</v>
       </c>
       <c r="J26" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K26" s="4">
         <v>2000</v>
@@ -2692,7 +2692,7 @@
       <c r="V26" s="4"/>
       <c r="X26" s="4"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>23</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>5</v>
       </c>
       <c r="J27" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K27" s="4">
         <v>3000</v>
@@ -2746,7 +2746,7 @@
       <c r="V27" s="4"/>
       <c r="X27" s="4"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>24</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>5</v>
       </c>
       <c r="J28" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K28" s="4">
         <v>5000</v>
@@ -2800,7 +2800,7 @@
       <c r="V28" s="4"/>
       <c r="X28" s="4"/>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>25</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>6</v>
       </c>
       <c r="J29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="4">
         <v>1000</v>
@@ -2849,7 +2849,7 @@
       <c r="V29" s="4"/>
       <c r="X29" s="4"/>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>26</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>6</v>
       </c>
       <c r="J30" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="4">
         <v>2000</v>
@@ -2903,7 +2903,7 @@
       <c r="V30" s="4"/>
       <c r="X30" s="4"/>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>27</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>6</v>
       </c>
       <c r="J31" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="4">
         <v>3000</v>
@@ -2957,7 +2957,7 @@
       <c r="V31" s="4"/>
       <c r="X31" s="4"/>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>28</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>6</v>
       </c>
       <c r="J32" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="4">
         <v>5000</v>
@@ -3011,7 +3011,7 @@
       <c r="V32" s="4"/>
       <c r="X32" s="4"/>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>29</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>7</v>
       </c>
       <c r="J33" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K33" s="4">
         <v>1000</v>
@@ -3060,7 +3060,7 @@
       <c r="V33" s="4"/>
       <c r="X33" s="4"/>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>30</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>7</v>
       </c>
       <c r="J34" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K34" s="4">
         <v>2000</v>
@@ -3114,7 +3114,7 @@
       <c r="V34" s="4"/>
       <c r="X34" s="4"/>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
         <v>31</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>7</v>
       </c>
       <c r="J35" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K35" s="4">
         <v>3000</v>
@@ -3168,7 +3168,7 @@
       <c r="V35" s="4"/>
       <c r="X35" s="4"/>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
         <v>32</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>7</v>
       </c>
       <c r="J36" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K36" s="4">
         <v>5000</v>
@@ -3222,7 +3222,7 @@
       <c r="V36" s="4"/>
       <c r="X36" s="4"/>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
         <v>33</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>8</v>
       </c>
       <c r="J37" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K37" s="4">
         <v>1000</v>
@@ -3271,7 +3271,7 @@
       <c r="V37" s="4"/>
       <c r="X37" s="4"/>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <v>34</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>8</v>
       </c>
       <c r="J38" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K38" s="4">
         <v>2000</v>
@@ -3325,7 +3325,7 @@
       <c r="V38" s="4"/>
       <c r="X38" s="4"/>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
         <v>35</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>8</v>
       </c>
       <c r="J39" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K39" s="4">
         <v>3000</v>
@@ -3379,7 +3379,7 @@
       <c r="V39" s="4"/>
       <c r="X39" s="4"/>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
         <v>36</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>8</v>
       </c>
       <c r="J40" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K40" s="4">
         <v>5000</v>
@@ -3433,7 +3433,7 @@
       <c r="V40" s="4"/>
       <c r="X40" s="4"/>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="M41" s="6"/>
@@ -3447,7 +3447,7 @@
       <c r="V41" s="4"/>
       <c r="X41" s="4"/>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="M42" s="6"/>
@@ -3461,7 +3461,7 @@
       <c r="V42" s="4"/>
       <c r="X42" s="4"/>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="M43" s="6"/>
@@ -3475,7 +3475,7 @@
       <c r="V43" s="4"/>
       <c r="X43" s="4"/>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="M44" s="6"/>
@@ -3489,7 +3489,7 @@
       <c r="V44" s="4"/>
       <c r="X44" s="4"/>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="M45" s="6"/>
@@ -3503,7 +3503,7 @@
       <c r="V45" s="4"/>
       <c r="X45" s="4"/>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="M46" s="6"/>
@@ -3516,7 +3516,7 @@
       <c r="V46" s="4"/>
       <c r="X46" s="4"/>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="N47" s="4"/>
@@ -3524,7 +3524,7 @@
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="N48" s="4"/>
@@ -3532,7 +3532,7 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
     </row>
-    <row r="49" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="N49" s="4"/>
@@ -3540,7 +3540,7 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
     </row>
-    <row r="50" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="N50" s="4"/>
@@ -3548,7 +3548,7 @@
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
     </row>
-    <row r="51" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="N51" s="4"/>
@@ -3556,7 +3556,7 @@
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
     </row>
-    <row r="52" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="N52" s="4"/>
@@ -3564,7 +3564,7 @@
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
     </row>
-    <row r="53" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="N53" s="4"/>
@@ -3572,7 +3572,7 @@
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
     </row>
-    <row r="54" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="N54" s="4"/>
@@ -3580,7 +3580,7 @@
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
     </row>
-    <row r="55" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="55" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="N55" s="4"/>
@@ -3588,7 +3588,7 @@
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
     </row>
-    <row r="56" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="N56" s="4"/>
@@ -3596,7 +3596,7 @@
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
     </row>
-    <row r="57" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="N57" s="4"/>
@@ -3604,7 +3604,7 @@
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
     </row>
-    <row r="58" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="58" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="N58" s="4"/>
@@ -3612,7 +3612,7 @@
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
     </row>
-    <row r="59" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="59" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="N59" s="4"/>
@@ -3620,7 +3620,7 @@
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
     </row>
-    <row r="60" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="60" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="N60" s="4"/>
@@ -3628,7 +3628,7 @@
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
     </row>
-    <row r="61" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="61" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="N61" s="4"/>
@@ -3636,7 +3636,7 @@
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
     </row>
-    <row r="62" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="62" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="N62" s="4"/>
@@ -3644,7 +3644,7 @@
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
     </row>
-    <row r="63" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="63" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="N63" s="4"/>
@@ -3652,7 +3652,7 @@
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
     </row>
-    <row r="64" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="64" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="N64" s="4"/>
@@ -3660,7 +3660,7 @@
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
     </row>
-    <row r="65" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="65" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="N65" s="4"/>
@@ -3668,7 +3668,7 @@
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
     </row>
-    <row r="66" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="66" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="N66" s="4"/>
@@ -3676,7 +3676,7 @@
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
     </row>
-    <row r="67" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="67" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="N67" s="4"/>
@@ -3684,7 +3684,7 @@
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
     </row>
-    <row r="68" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="68" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="N68" s="4"/>

--- a/Data/Export/Common/Technique_技术.xlsx
+++ b/Data/Export/Common/Technique_技术.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD7BF93-F313-4D7C-9381-90A302A0F29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34709166-495C-4C20-8FF9-091D9675A653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="12" windowWidth="30696" windowHeight="16656" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Techniques" sheetId="36" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="129">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -477,6 +477,18 @@
   </si>
   <si>
     <t>255,150,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:“ForceCityMaxMorale", value:20}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:“ForceTroopMaxTroop", value:3000}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:“TroopChangeTroops",value:20,kinds:[2],checkLand:0,isAttacker:1}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1316,27 +1328,30 @@
   <dimension ref="A1:Y68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.36328125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="97.6640625" style="2" customWidth="1"/>
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1575,7 +1590,9 @@
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="Q5" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="R5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
@@ -2420,7 +2437,9 @@
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
+      <c r="Q21" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="R21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
@@ -2582,7 +2601,9 @@
       <c r="P24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q24" s="4"/>
+      <c r="Q24" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="R24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>

--- a/Data/Export/Common/Technique_技术.xlsx
+++ b/Data/Export/Common/Technique_技术.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34709166-495C-4C20-8FF9-091D9675A653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E980EAB3-7965-4E6D-8358-A2E2456E5BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="12" windowWidth="30696" windowHeight="16656" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Techniques" sheetId="36" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="177">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,405 +90,611 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>强化枪兵的攻击力、防御力、移动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻炼戟兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加戟兵战法的威力</t>
+  </si>
+  <si>
+    <t>戟兵</t>
+  </si>
+  <si>
+    <t>箭盾</t>
+  </si>
+  <si>
+    <t>以30％的机率来防御弓箭攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大盾</t>
+  </si>
+  <si>
+    <t>以30％的机率来防御一般攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精锐戟兵</t>
+  </si>
+  <si>
+    <t>强化戟兵的攻击力、防御力、移动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻炼弩兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加弩兵战法的威力</t>
+  </si>
+  <si>
+    <t>弩兵</t>
+  </si>
+  <si>
+    <t>还射</t>
+  </si>
+  <si>
+    <t>弩兵遭受弓箭攻击时会自动反击</t>
+  </si>
+  <si>
+    <t>强弩</t>
+  </si>
+  <si>
+    <t>弩兵的射程增加１区格</t>
+  </si>
+  <si>
+    <t>精锐弩兵</t>
+  </si>
+  <si>
+    <t>强化弩兵的攻击力、防御力、移动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻炼骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加骑兵战法的威力</t>
+  </si>
+  <si>
+    <t>骑兵</t>
+  </si>
+  <si>
+    <t>出产良马</t>
+  </si>
+  <si>
+    <t>增加骑兵的移动力</t>
+  </si>
+  <si>
+    <t>骑射</t>
+  </si>
+  <si>
+    <t>骑兵可执行弓箭攻击</t>
+  </si>
+  <si>
+    <t>精锐骑兵</t>
+  </si>
+  <si>
+    <t>强化骑兵的攻击力、防御力、移动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练兵</t>
+  </si>
+  <si>
+    <t>士兵的气力上限增加20</t>
+  </si>
+  <si>
+    <t>錬兵</t>
+  </si>
+  <si>
+    <t>难所行军</t>
+  </si>
+  <si>
+    <t>军制改革</t>
+  </si>
+  <si>
+    <t>部队士兵上限增加3000</t>
+  </si>
+  <si>
+    <t>云梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加部队的据点攻击力</t>
+  </si>
+  <si>
+    <t>强化车轴</t>
+  </si>
+  <si>
+    <t>增加兵器的移动力</t>
+  </si>
+  <si>
+    <t>发明</t>
+  </si>
+  <si>
+    <t>石造建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使用障害物「石墙」、设施「石兵八阵」</t>
+  </si>
+  <si>
+    <t>开发投石</t>
+  </si>
+  <si>
+    <t>可使用兵装「投石、斗舰」、设施「投石台」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霹雳</t>
+  </si>
+  <si>
+    <t>执行投石攻击时，同时攻击周围１区格</t>
+  </si>
+  <si>
+    <t>培训工兵</t>
+  </si>
+  <si>
+    <t>增加每回合的耐久回复量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防卫</t>
+  </si>
+  <si>
+    <t>强化设施</t>
+  </si>
+  <si>
+    <t>可使用设施「砦、连弩楼」</t>
+  </si>
+  <si>
+    <t>强化城墙</t>
+  </si>
+  <si>
+    <t>可使用设施「城塞」、增加据点的耐久</t>
+  </si>
+  <si>
+    <t>强化防卫</t>
+  </si>
+  <si>
+    <t>强化据点的反击力</t>
+  </si>
+  <si>
+    <t>开发木兽</t>
+  </si>
+  <si>
+    <t>可使用兵装「木兽」</t>
+  </si>
+  <si>
+    <t>火攻</t>
+  </si>
+  <si>
+    <t>神火计</t>
+  </si>
+  <si>
+    <t>可于３区格范围内执行火计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼成火药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使用陷阱「火焰种、火焰球」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼成炸药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使用陷阱「业火种、业火球」，增强火势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开通官道</t>
+  </si>
+  <si>
+    <t>提升输送队的移动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内政</t>
+  </si>
+  <si>
+    <t>扩展港关</t>
+  </si>
+  <si>
+    <t>提升关所、港的最大资金、兵粮、士兵、兵装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整备政令</t>
+  </si>
+  <si>
+    <t>治安变得不容易下降</t>
+  </si>
+  <si>
+    <t>掌握人心</t>
+  </si>
+  <si>
+    <t>麾下武将的忠诚变得不容易下降</t>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goldCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>techPointCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费技巧点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needTechs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可通行间道与浅滩，通行栈道时不会受到损伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aobj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究所需属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needAttr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabColor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签页颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>au8</t>
+  </si>
+  <si>
+    <t>255,100,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100,255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,255,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,100,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255,255,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,255,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,100,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,255,255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255,150,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:“ForceCityMaxMorale", value:20}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:“ForceTroopMaxTroop", value:3000}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:“TroopChangeTroops",value:10,kinds:[2]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:“TroopChangeTroops",value:10,kinds:[3]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:“TroopChangeTroops",value:10,kinds:[4]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:“TroopChangeTroops",value:10,kinds:[5]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>精锐枪兵</t>
-  </si>
-  <si>
-    <t>强化枪兵的攻击力、防御力、移动力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锻炼戟兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加戟兵战法的威力</t>
-  </si>
-  <si>
-    <t>戟兵</t>
-  </si>
-  <si>
-    <t>箭盾</t>
-  </si>
-  <si>
-    <t>以30％的机率来防御弓箭攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大盾</t>
-  </si>
-  <si>
-    <t>以30％的机率来防御一般攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精锐戟兵</t>
-  </si>
-  <si>
-    <t>强化戟兵的攻击力、防御力、移动力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锻炼弩兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加弩兵战法的威力</t>
-  </si>
-  <si>
-    <t>弩兵</t>
-  </si>
-  <si>
-    <t>还射</t>
-  </si>
-  <si>
-    <t>弩兵遭受弓箭攻击时会自动反击</t>
-  </si>
-  <si>
-    <t>强弩</t>
-  </si>
-  <si>
-    <t>弩兵的射程增加１区格</t>
-  </si>
-  <si>
-    <t>精锐弩兵</t>
-  </si>
-  <si>
-    <t>强化弩兵的攻击力、防御力、移动力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锻炼骑兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加骑兵战法的威力</t>
-  </si>
-  <si>
-    <t>骑兵</t>
-  </si>
-  <si>
-    <t>出产良马</t>
-  </si>
-  <si>
-    <t>增加骑兵的移动力</t>
-  </si>
-  <si>
-    <t>骑射</t>
-  </si>
-  <si>
-    <t>骑兵可执行弓箭攻击</t>
-  </si>
-  <si>
-    <t>精锐骑兵</t>
-  </si>
-  <si>
-    <t>强化骑兵的攻击力、防御力、移动力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练兵</t>
-  </si>
-  <si>
-    <t>士兵的气力上限增加20</t>
-  </si>
-  <si>
-    <t>錬兵</t>
-  </si>
-  <si>
-    <t>难所行军</t>
-  </si>
-  <si>
-    <t>军制改革</t>
-  </si>
-  <si>
-    <t>部队士兵上限增加3000</t>
-  </si>
-  <si>
-    <t>云梯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加部队的据点攻击力</t>
-  </si>
-  <si>
-    <t>强化车轴</t>
-  </si>
-  <si>
-    <t>增加兵器的移动力</t>
-  </si>
-  <si>
-    <t>发明</t>
-  </si>
-  <si>
-    <t>石造建筑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可使用障害物「石墙」、设施「石兵八阵」</t>
-  </si>
-  <si>
-    <t>开发投石</t>
-  </si>
-  <si>
-    <t>可使用兵装「投石、斗舰」、设施「投石台」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>霹雳</t>
-  </si>
-  <si>
-    <t>执行投石攻击时，同时攻击周围１区格</t>
-  </si>
-  <si>
-    <t>培训工兵</t>
-  </si>
-  <si>
-    <t>增加每回合的耐久回复量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防卫</t>
-  </si>
-  <si>
-    <t>强化设施</t>
-  </si>
-  <si>
-    <t>可使用设施「砦、连弩楼」</t>
-  </si>
-  <si>
-    <t>强化城墙</t>
-  </si>
-  <si>
-    <t>可使用设施「城塞」、增加据点的耐久</t>
-  </si>
-  <si>
-    <t>强化防卫</t>
-  </si>
-  <si>
-    <t>强化据点的反击力</t>
-  </si>
-  <si>
-    <t>开发木兽</t>
-  </si>
-  <si>
-    <t>可使用兵装「木兽」</t>
-  </si>
-  <si>
-    <t>火攻</t>
-  </si>
-  <si>
-    <t>神火计</t>
-  </si>
-  <si>
-    <t>可于３区格范围内执行火计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼成火药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可使用陷阱「火焰种、火焰球」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼成炸药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可使用陷阱「业火种、业火球」，增强火势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开通官道</t>
-  </si>
-  <si>
-    <t>提升输送队的移动力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内政</t>
-  </si>
-  <si>
-    <t>扩展港关</t>
-  </si>
-  <si>
-    <t>提升关所、港的最大资金、兵粮、士兵、兵装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整备政令</t>
-  </si>
-  <si>
-    <t>治安变得不容易下降</t>
-  </si>
-  <si>
-    <t>掌握人心</t>
-  </si>
-  <si>
-    <t>麾下武将的忠诚变得不容易下降</t>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goldCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>techPointCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>counter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花费金钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花费技巧点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>needTechs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可通行间道与浅滩，通行栈道时不会受到损伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aobj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>col</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>row</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究所需属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>needAttr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tabColor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签页颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>au8</t>
-  </si>
-  <si>
-    <t>255,100,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,100,255</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,255,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150,100,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>255,255,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,255,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,100,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,255,255</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>255,150,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:“ForceCityMaxMorale", value:20}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:“ForceTroopMaxTroop", value:3000}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:“TroopChangeTroops",value:20,kinds:[2],checkLand:0,isAttacker:1}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:“TroopChangeTroops",value:15,kinds:[2]},{class:"TroopAddAttack",value:10,kinds:[2]},{class:"TroopAddDefence",value:10,kinds:[2]},{class:"TroopAddMoveAbility",value:6,kinds:[2]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:“TroopChangeTroops",value:15,kinds:[3]},{class:"TroopAddAttack",value:10,kinds:[3]},{class:"TroopAddDefence",value:10,kinds:[3]},{class:"TroopAddMoveAbility",value:6,kinds:[3]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:“TroopChangeTroops",value:15,kinds:[4]},{class:"TroopAddAttack",value:10,kinds:[4]},{class:"TroopAddDefence",value:10,kinds:[4]},{class:"TroopAddMoveAbility",value:6,kinds:[4]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:“TroopChangeTroops",value:15,kinds:[5]},{class:"TroopAddAttack",value:10,kinds:[5]},{class:"TroopAddDefence",value:10,kinds:[5]},{class:"TroopAddMoveAbility",value:6,kinds:[5]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"CityDurabilityLimit", value:3000, kinds:[1,2,3]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[class:"BuildingBaseAttackBack", value:"200"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopAddMoveAbility",value:6,kinds:[7]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪兵普攻与战法威力+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪兵攻击时可夺取敌军兵粮
+注：抢到兵粮数 = 己队攻击力 * R （R为1-2的随机数，兵数不足时抢到的兵粮至多为兵数的一半）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在森林地形攻击敌人不受反击
+注：-该技术对枪兵战法无效
+-该技术对【连击】的第二次攻击无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻防各增加10（加到攻击力105，防御力105），移动+6（加到28），枪兵普攻与战法威力+15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戟兵普攻与战法威力+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到弓箭、舰船部队普通攻击或者骑射攻击时30%的概率不受伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到普通攻击或一齐攻击时30%的概率不受伤害。
+注：-与【金刚】或【不屈】同时作用时，不受普攻的概率=50%+50%*30%=65%
+-“混乱”或“伪报”状态该技术依然有效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻防各增加10（加到攻击力100，防御力115），移动+6（加到28），戟兵普攻与战法威力+15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩兵普攻与战法威力+10%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受弓箭、舰船部队普攻或战法攻击后可进行反击。
+注：-扰乱和伪报中无此效果。
+-若对方特技为【突袭】或【强袭】，则有50%的概率无还射。
+-若我方部队发生还射，则敌部队无法发动支援攻击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩兵射程+1（增加到3）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻防各增加10（加到攻击力95，防御力100），移动+6（加到28）,弓兵普攻与战法威力+15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑兵普攻与战法威力+10%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑兵移动+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使用“骑射”攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻防各增加10（加到攻击力115，防御力100），移动+2（加到34），骑兵普攻与战法威力+15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵种气力值上限增加为120。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部队可以通过间道、浅滩。通过栈道时不受伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武将统兵上限增加3000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通部队攻城所造成的伤害+40%，兵器队攻城伤害+20%，（包括守兵和耐久）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵器的移动力+4。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopAddMoveAbility",value:4,kinds:[8,9]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可建造设施“石墙”、“石兵八阵”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可建造设施“投石台”、制造兵器“投石”、“斗舰”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投石车攻击会伤害到目标周围的单位（不分敌我）。
+注：-只有目标部队与目标部队东北方向相邻部队为全额伤害，其他伤害为目标伤害的三分之一。
+-“投石台”无此效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训工兵：建筑耐久回复速度+150%。
+注：耐久回复速度≈180*太守政治*（1+科技加成）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化设施：可建造设施“砦”、“连弩楼”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化城墙：可建造设施“城塞”，全据点耐久增加3000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防卫强化：据点反击力+100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发木兽：可建造兵器“木兽”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神火计：火计释放距离增加为3。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼成火药：可建造设施“火焰种”、“火焰球”
+注：火焰球的燃烧格数为5。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼成炸药：可建造设施“业火种”、“业火球”。
+注：有致晕和致死的效果，【火神】无法免疫此两种效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输队移动力+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木牛流马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展关港：关港兵力上限+30000，金钱上限+30000，兵粮上限+300000，兵装上限+30000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整备政令：换季时治安下降概率变为50%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握人心：换季时武将忠诚下降概率变为33%。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -659,6 +865,24 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1328,34 +1552,35 @@
   <dimension ref="A1:Y68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="Q5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomRight" activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="97.6640625" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="16" max="16" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="103.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="66" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -1364,44 +1589,44 @@
         <v>1</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E1" s="14"/>
       <c r="F1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>103</v>
-      </c>
       <c r="P1" s="14"/>
-      <c r="Q1" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="R1" s="9"/>
+      <c r="Q1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" s="7"/>
       <c r="S1" s="7"/>
       <c r="T1" s="9"/>
       <c r="U1" s="7"/>
@@ -1410,7 +1635,7 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="7"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1429,8 +1654,7 @@
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2" s="2"/>
+      <c r="Q2" s="17"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
@@ -1439,7 +1663,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:25" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1450,43 +1674,43 @@
         <v>7</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="G3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="J3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="N3" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="O3" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P3" s="8"/>
-      <c r="Q3" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="R3" s="8"/>
+      <c r="Q3" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="R3" s="18"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -1495,7 +1719,7 @@
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
     </row>
-    <row r="4" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1509,46 +1733,49 @@
         <v>3</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q4" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -1574,13 +1801,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="4">
         <v>1000</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M5" s="4">
         <v>2000</v>
@@ -1590,16 +1817,18 @@
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="R5" s="4"/>
+      <c r="Q5" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="X5" s="4"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1626,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4">
         <v>2000</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M6" s="4">
         <v>3000</v>
@@ -1647,14 +1876,16 @@
       <c r="P6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20" t="s">
+        <v>140</v>
+      </c>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="X6" s="4"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1680,13 +1911,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="4">
         <v>3000</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M7" s="4">
         <v>5000</v>
@@ -1701,22 +1932,24 @@
       <c r="P7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20" t="s">
+        <v>141</v>
+      </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="X7" s="4"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -1734,13 +1967,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="4">
         <v>5000</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M8" s="4">
         <v>8000</v>
@@ -1755,28 +1988,32 @@
       <c r="P8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="Q8" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="R8" s="20" t="s">
+        <v>142</v>
+      </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="X8" s="4"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="E9" s="4">
         <v>2</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -1788,13 +2025,13 @@
         <v>1</v>
       </c>
       <c r="J9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="4">
         <v>1000</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M9" s="4">
         <v>2000</v>
@@ -1804,28 +2041,32 @@
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
+      <c r="Q9" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>143</v>
+      </c>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="X9" s="4"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="E10" s="4">
         <v>2</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
@@ -1837,13 +2078,13 @@
         <v>1</v>
       </c>
       <c r="J10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4">
         <v>2000</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M10" s="4">
         <v>3000</v>
@@ -1856,30 +2097,32 @@
         <v>5</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20" t="s">
+        <v>144</v>
+      </c>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="X10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="E11" s="4">
         <v>2</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" s="4">
         <v>2</v>
@@ -1891,13 +2134,13 @@
         <v>1</v>
       </c>
       <c r="J11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="4">
         <v>3000</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M11" s="4">
         <v>5000</v>
@@ -1910,30 +2153,32 @@
         <v>6</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20" t="s">
+        <v>145</v>
+      </c>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="X11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="E12" s="4">
         <v>2</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="4">
         <v>3</v>
@@ -1945,13 +2190,13 @@
         <v>1</v>
       </c>
       <c r="J12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="4">
         <v>5000</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M12" s="4">
         <v>8000</v>
@@ -1964,30 +2209,34 @@
         <v>7</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="R12" s="20" t="s">
+        <v>146</v>
+      </c>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="X12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E13" s="4">
-        <v>3</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="G13" s="4">
         <v>0</v>
@@ -1999,13 +2248,13 @@
         <v>2</v>
       </c>
       <c r="J13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
         <v>1000</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M13" s="4">
         <v>2000</v>
@@ -2015,28 +2264,32 @@
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+      <c r="Q13" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="R13" s="20" t="s">
+        <v>147</v>
+      </c>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="X13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="54" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="E14" s="4">
         <v>3</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="4">
         <v>1</v>
@@ -2048,13 +2301,13 @@
         <v>2</v>
       </c>
       <c r="J14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="4">
         <v>2000</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M14" s="4">
         <v>3000</v>
@@ -2067,30 +2320,32 @@
         <v>9</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20" t="s">
+        <v>148</v>
+      </c>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="X14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="E15" s="4">
         <v>3</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="4">
         <v>2</v>
@@ -2102,13 +2357,13 @@
         <v>2</v>
       </c>
       <c r="J15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="4">
         <v>3000</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M15" s="4">
         <v>5000</v>
@@ -2121,30 +2376,32 @@
         <v>10</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20" t="s">
+        <v>149</v>
+      </c>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="X15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="E16" s="4">
         <v>3</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16" s="4">
         <v>3</v>
@@ -2156,13 +2413,13 @@
         <v>2</v>
       </c>
       <c r="J16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <v>5000</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M16" s="4">
         <v>8000</v>
@@ -2175,30 +2432,34 @@
         <v>11</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="Q16" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="R16" s="20" t="s">
+        <v>150</v>
+      </c>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="X16" s="4"/>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="E17" s="4">
         <v>4</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
@@ -2210,13 +2471,13 @@
         <v>3</v>
       </c>
       <c r="J17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="4">
         <v>1000</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M17" s="4">
         <v>2000</v>
@@ -2226,28 +2487,32 @@
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
+      <c r="Q17" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="R17" s="20" t="s">
+        <v>151</v>
+      </c>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="X17" s="4"/>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="E18" s="4">
         <v>4</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="4">
         <v>1</v>
@@ -2259,13 +2524,13 @@
         <v>3</v>
       </c>
       <c r="J18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="4">
         <v>2000</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M18" s="4">
         <v>3000</v>
@@ -2278,30 +2543,32 @@
         <v>13</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20" t="s">
+        <v>152</v>
+      </c>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="X18" s="4"/>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="E19" s="4">
         <v>4</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="4">
         <v>2</v>
@@ -2313,13 +2580,13 @@
         <v>3</v>
       </c>
       <c r="J19" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="4">
         <v>3000</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M19" s="4">
         <v>5000</v>
@@ -2332,30 +2599,32 @@
         <v>14</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20" t="s">
+        <v>153</v>
+      </c>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="X19" s="4"/>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="E20" s="4">
         <v>4</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" s="4">
         <v>3</v>
@@ -2367,13 +2636,13 @@
         <v>3</v>
       </c>
       <c r="J20" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="4">
         <v>5000</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M20" s="4">
         <v>8000</v>
@@ -2386,30 +2655,34 @@
         <v>15</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="Q20" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="R20" s="20" t="s">
+        <v>154</v>
+      </c>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="X20" s="4"/>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="E21" s="4">
         <v>5</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
@@ -2421,13 +2694,13 @@
         <v>4</v>
       </c>
       <c r="J21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="4">
         <v>1000</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M21" s="4">
         <v>2000</v>
@@ -2437,30 +2710,32 @@
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="R21" s="4"/>
+      <c r="Q21" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="R21" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="X21" s="4"/>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>18</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E22" s="4">
         <v>5</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G22" s="4">
         <v>1</v>
@@ -2472,13 +2747,13 @@
         <v>4</v>
       </c>
       <c r="J22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="4">
         <v>2000</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M22" s="4">
         <v>3000</v>
@@ -2491,30 +2766,32 @@
         <v>17</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20" t="s">
+        <v>156</v>
+      </c>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="X22" s="4"/>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="E23" s="4">
         <v>5</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23" s="4">
         <v>2</v>
@@ -2526,13 +2803,13 @@
         <v>4</v>
       </c>
       <c r="J23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="4">
         <v>3000</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M23" s="4">
         <v>5000</v>
@@ -2545,30 +2822,34 @@
         <v>18</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="Q23" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="R23" s="20" t="s">
+        <v>157</v>
+      </c>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="X23" s="4"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="E24" s="4">
         <v>5</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G24" s="4">
         <v>3</v>
@@ -2580,13 +2861,13 @@
         <v>4</v>
       </c>
       <c r="J24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="4">
         <v>5000</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M24" s="4">
         <v>8000</v>
@@ -2599,32 +2880,31 @@
         <v>19</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="R24" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="R24" s="20" t="s">
+        <v>158</v>
+      </c>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="X24" s="4"/>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="E25" s="4">
         <v>6</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G25" s="4">
         <v>0</v>
@@ -2642,7 +2922,7 @@
         <v>1000</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M25" s="4">
         <v>2000</v>
@@ -2652,28 +2932,32 @@
       </c>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
+      <c r="Q25" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="R25" s="20" t="s">
+        <v>159</v>
+      </c>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="X25" s="4"/>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B26" s="4">
         <v>22</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E26" s="4">
         <v>6</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
@@ -2691,7 +2975,7 @@
         <v>2000</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M26" s="4">
         <v>3000</v>
@@ -2704,30 +2988,32 @@
         <v>21</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="X26" s="4"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B27" s="4">
         <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="E27" s="4">
         <v>6</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G27" s="4">
         <v>2</v>
@@ -2745,7 +3031,7 @@
         <v>3000</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M27" s="4">
         <v>5000</v>
@@ -2758,30 +3044,32 @@
         <v>22</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20" t="s">
+        <v>162</v>
+      </c>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="X27" s="4"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" ht="54" x14ac:dyDescent="0.15">
       <c r="B28" s="4">
         <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="E28" s="4">
         <v>6</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G28" s="4">
         <v>3</v>
@@ -2799,7 +3087,7 @@
         <v>5000</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M28" s="4">
         <v>8000</v>
@@ -2812,30 +3100,32 @@
         <v>23</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20" t="s">
+        <v>163</v>
+      </c>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="X28" s="4"/>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" ht="27" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="E29" s="4">
         <v>7</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" s="4">
         <v>0</v>
@@ -2847,13 +3137,13 @@
         <v>6</v>
       </c>
       <c r="J29" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K29" s="4">
         <v>1000</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M29" s="4">
         <v>2000</v>
@@ -2863,28 +3153,30 @@
       </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="X29" s="4"/>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <v>26</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="E30" s="4">
         <v>7</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G30" s="4">
         <v>1</v>
@@ -2896,13 +3188,13 @@
         <v>6</v>
       </c>
       <c r="J30" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K30" s="4">
         <v>2000</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M30" s="4">
         <v>3000</v>
@@ -2915,30 +3207,32 @@
         <v>25</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20" t="s">
+        <v>165</v>
+      </c>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="X30" s="4"/>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B31" s="4">
         <v>27</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="E31" s="4">
         <v>7</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G31" s="4">
         <v>2</v>
@@ -2950,13 +3244,13 @@
         <v>6</v>
       </c>
       <c r="J31" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K31" s="4">
         <v>3000</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M31" s="4">
         <v>5000</v>
@@ -2969,30 +3263,34 @@
         <v>26</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="Q31" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="R31" s="20" t="s">
+        <v>166</v>
+      </c>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="X31" s="4"/>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B32" s="4">
         <v>28</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="E32" s="4">
         <v>7</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" s="4">
         <v>3</v>
@@ -3004,13 +3302,13 @@
         <v>6</v>
       </c>
       <c r="J32" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K32" s="4">
         <v>5000</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M32" s="4">
         <v>8000</v>
@@ -3023,30 +3321,34 @@
         <v>27</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="Q32" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="R32" s="20" t="s">
+        <v>167</v>
+      </c>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="X32" s="4"/>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B33" s="4">
         <v>29</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="E33" s="4">
         <v>8</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G33" s="4">
         <v>0</v>
@@ -3064,7 +3366,7 @@
         <v>1000</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M33" s="4">
         <v>2000</v>
@@ -3074,28 +3376,30 @@
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20" t="s">
+        <v>168</v>
+      </c>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="X33" s="4"/>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
         <v>30</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="E34" s="4">
         <v>8</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
@@ -3113,7 +3417,7 @@
         <v>2000</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M34" s="4">
         <v>3000</v>
@@ -3126,30 +3430,32 @@
         <v>29</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20" t="s">
+        <v>169</v>
+      </c>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="X34" s="4"/>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:24" ht="27" x14ac:dyDescent="0.15">
       <c r="B35" s="4">
         <v>31</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="E35" s="4">
         <v>8</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G35" s="4">
         <v>2</v>
@@ -3167,7 +3473,7 @@
         <v>3000</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M35" s="4">
         <v>5000</v>
@@ -3180,30 +3486,32 @@
         <v>30</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20" t="s">
+        <v>170</v>
+      </c>
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="X35" s="4"/>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:24" ht="27" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
         <v>32</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="E36" s="4">
         <v>8</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G36" s="4">
         <v>3</v>
@@ -3221,7 +3529,7 @@
         <v>5000</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M36" s="4">
         <v>8000</v>
@@ -3234,30 +3542,32 @@
         <v>31</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20" t="s">
+        <v>171</v>
+      </c>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="X36" s="4"/>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B37" s="4">
         <v>33</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="E37" s="4">
         <v>9</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" s="4">
         <v>0</v>
@@ -3275,7 +3585,7 @@
         <v>1000</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M37" s="4">
         <v>2000</v>
@@ -3285,28 +3595,32 @@
       </c>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
+      <c r="Q37" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="R37" s="20" t="s">
+        <v>172</v>
+      </c>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="X37" s="4"/>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:24" ht="27" x14ac:dyDescent="0.15">
       <c r="B38" s="4">
         <v>34</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="E38" s="4">
         <v>9</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G38" s="4">
         <v>1</v>
@@ -3324,7 +3638,7 @@
         <v>2000</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M38" s="4">
         <v>3000</v>
@@ -3337,30 +3651,32 @@
         <v>33</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20" t="s">
+        <v>174</v>
+      </c>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="X38" s="4"/>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B39" s="4">
         <v>35</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="E39" s="4">
         <v>9</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" s="4">
         <v>2</v>
@@ -3378,7 +3694,7 @@
         <v>3000</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M39" s="4">
         <v>5000</v>
@@ -3391,30 +3707,32 @@
         <v>34</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20" t="s">
+        <v>175</v>
+      </c>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="X39" s="4"/>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
         <v>36</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="E40" s="4">
         <v>9</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" s="4">
         <v>3</v>
@@ -3432,7 +3750,7 @@
         <v>5000</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M40" s="4">
         <v>8000</v>
@@ -3445,273 +3763,275 @@
         <v>35</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20" t="s">
+        <v>176</v>
+      </c>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="X40" s="4"/>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.15">
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="M41" s="6"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="X41" s="4"/>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.15">
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="M42" s="6"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="X42" s="4"/>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.15">
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="M43" s="6"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
       <c r="X43" s="4"/>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.15">
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="M44" s="6"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
       <c r="X44" s="4"/>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.15">
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="M45" s="6"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="X45" s="4"/>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.15">
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="M46" s="6"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
       <c r="T46" s="4"/>
       <c r="V46" s="4"/>
       <c r="X46" s="4"/>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.15">
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Q47" s="20"/>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.15">
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-    </row>
-    <row r="49" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q48" s="20"/>
+    </row>
+    <row r="49" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-    </row>
-    <row r="50" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q49" s="20"/>
+    </row>
+    <row r="50" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-    </row>
-    <row r="51" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q50" s="20"/>
+    </row>
+    <row r="51" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-    </row>
-    <row r="52" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q51" s="20"/>
+    </row>
+    <row r="52" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-    </row>
-    <row r="53" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q52" s="20"/>
+    </row>
+    <row r="53" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-    </row>
-    <row r="54" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q53" s="20"/>
+    </row>
+    <row r="54" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-    </row>
-    <row r="55" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q54" s="20"/>
+    </row>
+    <row r="55" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-    </row>
-    <row r="56" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q55" s="20"/>
+    </row>
+    <row r="56" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-    </row>
-    <row r="57" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q56" s="20"/>
+    </row>
+    <row r="57" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-    </row>
-    <row r="58" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q57" s="20"/>
+    </row>
+    <row r="58" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-    </row>
-    <row r="59" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q58" s="20"/>
+    </row>
+    <row r="59" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-    </row>
-    <row r="60" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q59" s="20"/>
+    </row>
+    <row r="60" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-    </row>
-    <row r="61" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q60" s="20"/>
+    </row>
+    <row r="61" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-    </row>
-    <row r="62" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q61" s="20"/>
+    </row>
+    <row r="62" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-    </row>
-    <row r="63" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q62" s="20"/>
+    </row>
+    <row r="63" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-    </row>
-    <row r="64" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q63" s="20"/>
+    </row>
+    <row r="64" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-    </row>
-    <row r="65" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q64" s="20"/>
+    </row>
+    <row r="65" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-    </row>
-    <row r="66" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q65" s="20"/>
+    </row>
+    <row r="66" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-    </row>
-    <row r="67" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q66" s="20"/>
+    </row>
+    <row r="67" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
-    </row>
-    <row r="68" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q67" s="20"/>
+    </row>
+    <row r="68" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
+      <c r="Q68" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/Export/Common/Technique_技术.xlsx
+++ b/Data/Export/Common/Technique_技术.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E980EAB3-7965-4E6D-8358-A2E2456E5BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CF09F1-99A5-4D41-BE94-048B11078899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Techniques" sheetId="36" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -477,47 +474,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{class:“ForceCityMaxMorale", value:20}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:“ForceTroopMaxTroop", value:3000}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:“TroopChangeTroops",value:10,kinds:[2]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:“TroopChangeTroops",value:10,kinds:[3]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:“TroopChangeTroops",value:10,kinds:[4]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:“TroopChangeTroops",value:10,kinds:[5]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>精锐枪兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:“TroopChangeTroops",value:15,kinds:[2]},{class:"TroopAddAttack",value:10,kinds:[2]},{class:"TroopAddDefence",value:10,kinds:[2]},{class:"TroopAddMoveAbility",value:6,kinds:[2]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:“TroopChangeTroops",value:15,kinds:[3]},{class:"TroopAddAttack",value:10,kinds:[3]},{class:"TroopAddDefence",value:10,kinds:[3]},{class:"TroopAddMoveAbility",value:6,kinds:[3]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:“TroopChangeTroops",value:15,kinds:[4]},{class:"TroopAddAttack",value:10,kinds:[4]},{class:"TroopAddDefence",value:10,kinds:[4]},{class:"TroopAddMoveAbility",value:6,kinds:[4]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:“TroopChangeTroops",value:15,kinds:[5]},{class:"TroopAddAttack",value:10,kinds:[5]},{class:"TroopAddDefence",value:10,kinds:[5]},{class:"TroopAddMoveAbility",value:6,kinds:[5]}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -696,6 +653,38 @@
   <si>
     <t>掌握人心：换季时武将忠诚下降概率变为33%。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopChangeTroops",value:10,kinds:[2]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopChangeTroops",value:10,kinds:[3]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopChangeTroops",value:15,kinds:[2]},{class:"TroopAddAttack",value:10,kinds:[2]},{class:"TroopAddDefence",value:10,kinds:[2]},{class:"TroopAddMoveAbility",value:6,kinds:[2]}]</t>
+  </si>
+  <si>
+    <t>[{class:"TroopChangeTroops",value:15,kinds:[3]},{class:"TroopAddAttack",value:10,kinds:[3]},{class:"TroopAddDefence",value:10,kinds:[3]},{class:"TroopAddMoveAbility",value:6,kinds:[3]}]</t>
+  </si>
+  <si>
+    <t>[{class:"TroopChangeTroops",value:10,kinds:[4]}]</t>
+  </si>
+  <si>
+    <t>[{class:"TroopChangeTroops",value:15,kinds:[4]},{class:"TroopAddAttack",value:10,kinds:[4]},{class:"TroopAddDefence",value:10,kinds:[4]},{class:"TroopAddMoveAbility",value:6,kinds:[4]}]</t>
+  </si>
+  <si>
+    <t>[{class:"TroopChangeTroops",value:10,kinds:[5]}]</t>
+  </si>
+  <si>
+    <t>[{class:"TroopChangeTroops",value:15,kinds:[5]},{class:"TroopAddAttack",value:10,kinds:[5]},{class:"TroopAddDefence",value:10,kinds:[5]},{class:"TroopAddMoveAbility",value:6,kinds:[5]}]</t>
+  </si>
+  <si>
+    <t>[{class:"ForceCityMaxMorale", value:20}]</t>
+  </si>
+  <si>
+    <t>[{class:"ForceTroopMaxTroop", value:3000}]</t>
   </si>
 </sst>
 </file>
@@ -819,7 +808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -866,16 +855,7 @@
     <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -884,6 +864,10 @@
     <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -905,361 +889,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="info"/>
-      <sheetName val="force"/>
-      <sheetName val="corps"/>
-      <sheetName val="city"/>
-      <sheetName val="gate"/>
-      <sheetName val="port"/>
-      <sheetName val="person"/>
-      <sheetName val="treasure"/>
-      <sheetName val="troops"/>
-      <sheetName val="troops_type"/>
-      <sheetName val="troops_animation"/>
-      <sheetName val="cell"/>
-      <sheetName val="building"/>
-      <sheetName val="building_type"/>
-      <sheetName val="technique"/>
-      <sheetName val="terrain_type"/>
-      <sheetName val="features"/>
-      <sheetName val="skill"/>
-      <sheetName val="area"/>
-      <sheetName val="enum"/>
-      <sheetName val="official"/>
-      <sheetName val="state"/>
-      <sheetName val="learning"/>
-      <sheetName val="duke"/>
-      <sheetName val="country"/>
-      <sheetName val="first_name"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14">
-        <row r="5">
-          <cell r="E5" t="str">
-            <v>锻炼枪兵</v>
-          </cell>
-          <cell r="F5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6" t="str">
-            <v>袭击兵粮</v>
-          </cell>
-          <cell r="F6">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7" t="str">
-            <v>奇袭</v>
-          </cell>
-          <cell r="F7">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8" t="str">
-            <v>精锐枪兵</v>
-          </cell>
-          <cell r="F8">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9" t="str">
-            <v>锻炼戟兵</v>
-          </cell>
-          <cell r="F9">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10" t="str">
-            <v>箭盾</v>
-          </cell>
-          <cell r="F10">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11" t="str">
-            <v>大盾</v>
-          </cell>
-          <cell r="F11">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12" t="str">
-            <v>精锐戟兵</v>
-          </cell>
-          <cell r="F12">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13" t="str">
-            <v>锻炼弩兵</v>
-          </cell>
-          <cell r="F13">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14" t="str">
-            <v>还射</v>
-          </cell>
-          <cell r="F14">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="E15" t="str">
-            <v>强弩</v>
-          </cell>
-          <cell r="F15">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="E16" t="str">
-            <v>精锐弩兵</v>
-          </cell>
-          <cell r="F16">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17" t="str">
-            <v>锻炼骑兵</v>
-          </cell>
-          <cell r="F17">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="E18" t="str">
-            <v>出产良马</v>
-          </cell>
-          <cell r="F18">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19" t="str">
-            <v>骑射</v>
-          </cell>
-          <cell r="F19">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="E20" t="str">
-            <v>精锐骑兵</v>
-          </cell>
-          <cell r="F20">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="E21" t="str">
-            <v>熟练兵</v>
-          </cell>
-          <cell r="F21">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="E22" t="str">
-            <v>难所行军</v>
-          </cell>
-          <cell r="F22">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="E23" t="str">
-            <v>军制改革</v>
-          </cell>
-          <cell r="F23">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="E24" t="str">
-            <v>云梯</v>
-          </cell>
-          <cell r="F24">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="E25" t="str">
-            <v>强化车轴</v>
-          </cell>
-          <cell r="F25">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="E26" t="str">
-            <v>石造建筑</v>
-          </cell>
-          <cell r="F26">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="E27" t="str">
-            <v>开发投石</v>
-          </cell>
-          <cell r="F27">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="E28" t="str">
-            <v>霹雳</v>
-          </cell>
-          <cell r="F28">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="E29" t="str">
-            <v>培训工兵</v>
-          </cell>
-          <cell r="F29">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30" t="str">
-            <v>强化设施</v>
-          </cell>
-          <cell r="F30">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31" t="str">
-            <v>强化城墙</v>
-          </cell>
-          <cell r="F31">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32" t="str">
-            <v>强化防卫</v>
-          </cell>
-          <cell r="F32">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="E33" t="str">
-            <v>开发木兽</v>
-          </cell>
-          <cell r="F33">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="E34" t="str">
-            <v>神火计</v>
-          </cell>
-          <cell r="F34">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="E35" t="str">
-            <v>炼成火药</v>
-          </cell>
-          <cell r="F35">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="E36" t="str">
-            <v>炼成炸药</v>
-          </cell>
-          <cell r="F36">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="E37" t="str">
-            <v>开通官道</v>
-          </cell>
-          <cell r="F37">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="E38" t="str">
-            <v>扩展港关</v>
-          </cell>
-          <cell r="F38">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="E39" t="str">
-            <v>整备政令</v>
-          </cell>
-          <cell r="F39">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="E40" t="str">
-            <v>掌握人心</v>
-          </cell>
-          <cell r="F40">
-            <v>36</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1552,10 +1181,10 @@
   <dimension ref="A1:Y68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="Q5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q25" sqref="Q25"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1575,7 +1204,7 @@
     <col min="14" max="14" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="103.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="103.75" style="2" customWidth="1"/>
     <col min="18" max="18" width="66" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
@@ -1623,7 +1252,7 @@
         <v>102</v>
       </c>
       <c r="P1" s="14"/>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="19" t="s">
         <v>104</v>
       </c>
       <c r="R1" s="7"/>
@@ -1654,7 +1283,7 @@
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
-      <c r="Q2" s="17"/>
+      <c r="Q2" s="20"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
@@ -1707,10 +1336,10 @@
         <v>103</v>
       </c>
       <c r="P3" s="8"/>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="R3" s="18"/>
+      <c r="R3" s="16"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -1768,10 +1397,10 @@
       <c r="P4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1817,18 +1446,18 @@
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="R5" s="20" t="s">
-        <v>139</v>
+      <c r="Q5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="X5" s="4"/>
     </row>
-    <row r="6" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1870,15 +1499,13 @@
         <v>4</v>
       </c>
       <c r="O6" s="4">
-        <f>IFERROR(VLOOKUP(P6,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>1</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20" t="s">
-        <v>140</v>
+      <c r="R6" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
@@ -1926,27 +1553,25 @@
         <v>6</v>
       </c>
       <c r="O7" s="4">
-        <f>IFERROR(VLOOKUP(P7,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>2</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20" t="s">
-        <v>141</v>
+      <c r="R7" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="X7" s="4"/>
     </row>
-    <row r="8" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>15</v>
@@ -1982,17 +1607,16 @@
         <v>9</v>
       </c>
       <c r="O8" s="4">
-        <f>IFERROR(VLOOKUP(P8,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>3</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="20" t="s">
+      <c r="Q8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="R8" s="17" t="s">
         <v>132</v>
-      </c>
-      <c r="R8" s="20" t="s">
-        <v>142</v>
       </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
@@ -2041,11 +1665,11 @@
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="R9" s="20" t="s">
-        <v>143</v>
+      <c r="Q9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
@@ -2093,15 +1717,13 @@
         <v>4</v>
       </c>
       <c r="O10" s="4">
-        <f>IFERROR(VLOOKUP(P10,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>5</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20" t="s">
-        <v>144</v>
+      <c r="R10" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
@@ -2149,22 +1771,20 @@
         <v>6</v>
       </c>
       <c r="O11" s="4">
-        <f>IFERROR(VLOOKUP(P11,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>6</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20" t="s">
-        <v>145</v>
+      <c r="R11" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="X11" s="4"/>
     </row>
-    <row r="12" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -2205,17 +1825,16 @@
         <v>9</v>
       </c>
       <c r="O12" s="4">
-        <f>IFERROR(VLOOKUP(P12,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>7</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q12" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="R12" s="20" t="s">
-        <v>146</v>
+      <c r="Q12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
@@ -2264,11 +1883,11 @@
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="R13" s="20" t="s">
-        <v>147</v>
+      <c r="Q13" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
@@ -2316,15 +1935,13 @@
         <v>4</v>
       </c>
       <c r="O14" s="4">
-        <f>IFERROR(VLOOKUP(P14,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>9</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20" t="s">
-        <v>148</v>
+      <c r="R14" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
@@ -2372,22 +1989,20 @@
         <v>6</v>
       </c>
       <c r="O15" s="4">
-        <f>IFERROR(VLOOKUP(P15,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>10</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20" t="s">
-        <v>149</v>
+      <c r="R15" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="X15" s="4"/>
     </row>
-    <row r="16" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25" ht="27" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -2428,17 +2043,16 @@
         <v>9</v>
       </c>
       <c r="O16" s="4">
-        <f>IFERROR(VLOOKUP(P16,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>11</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q16" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="R16" s="20" t="s">
-        <v>150</v>
+      <c r="Q16" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="R16" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
@@ -2487,11 +2101,11 @@
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="R17" s="20" t="s">
-        <v>151</v>
+      <c r="Q17" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="R17" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
@@ -2539,15 +2153,13 @@
         <v>4</v>
       </c>
       <c r="O18" s="4">
-        <f>IFERROR(VLOOKUP(P18,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>13</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20" t="s">
-        <v>152</v>
+      <c r="R18" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
@@ -2595,22 +2207,20 @@
         <v>6</v>
       </c>
       <c r="O19" s="4">
-        <f>IFERROR(VLOOKUP(P19,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>14</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20" t="s">
-        <v>153</v>
+      <c r="R19" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="X19" s="4"/>
     </row>
-    <row r="20" spans="2:24" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:24" ht="27" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -2651,17 +2261,16 @@
         <v>9</v>
       </c>
       <c r="O20" s="4">
-        <f>IFERROR(VLOOKUP(P20,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>15</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q20" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="R20" s="20" t="s">
-        <v>154</v>
+      <c r="Q20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="R20" s="17" t="s">
+        <v>144</v>
       </c>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
@@ -2710,11 +2319,11 @@
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="R21" s="20" t="s">
-        <v>155</v>
+      <c r="Q21" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="R21" s="17" t="s">
+        <v>145</v>
       </c>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
@@ -2762,15 +2371,13 @@
         <v>4</v>
       </c>
       <c r="O22" s="4">
-        <f>IFERROR(VLOOKUP(P22,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>17</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20" t="s">
-        <v>156</v>
+      <c r="R22" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
@@ -2818,17 +2425,16 @@
         <v>6</v>
       </c>
       <c r="O23" s="4">
-        <f>IFERROR(VLOOKUP(P23,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>18</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q23" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="R23" s="20" t="s">
-        <v>157</v>
+      <c r="Q23" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="R23" s="17" t="s">
+        <v>147</v>
       </c>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
@@ -2876,14 +2482,13 @@
         <v>9</v>
       </c>
       <c r="O24" s="4">
-        <f>IFERROR(VLOOKUP(P24,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>19</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="R24" s="20" t="s">
-        <v>158</v>
+      <c r="R24" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
@@ -2932,11 +2537,11 @@
       </c>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
-      <c r="Q25" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="R25" s="20" t="s">
-        <v>159</v>
+      <c r="Q25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="R25" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
@@ -2984,15 +2589,13 @@
         <v>4</v>
       </c>
       <c r="O26" s="4">
-        <f>IFERROR(VLOOKUP(P26,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>21</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20" t="s">
-        <v>161</v>
+      <c r="R26" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
@@ -3040,15 +2643,13 @@
         <v>6</v>
       </c>
       <c r="O27" s="4">
-        <f>IFERROR(VLOOKUP(P27,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>22</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20" t="s">
-        <v>162</v>
+      <c r="R27" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
@@ -3096,15 +2697,13 @@
         <v>9</v>
       </c>
       <c r="O28" s="4">
-        <f>IFERROR(VLOOKUP(P28,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>23</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20" t="s">
-        <v>163</v>
+      <c r="R28" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
@@ -3153,9 +2752,8 @@
       </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
-      <c r="Q29" s="20"/>
       <c r="R29" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
@@ -3203,15 +2801,13 @@
         <v>5</v>
       </c>
       <c r="O30" s="4">
-        <f>IFERROR(VLOOKUP(P30,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>25</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20" t="s">
-        <v>165</v>
+      <c r="R30" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
@@ -3259,17 +2855,16 @@
         <v>7</v>
       </c>
       <c r="O31" s="4">
-        <f>IFERROR(VLOOKUP(P31,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>26</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q31" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="R31" s="20" t="s">
-        <v>166</v>
+      <c r="Q31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R31" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
@@ -3317,17 +2912,16 @@
         <v>10</v>
       </c>
       <c r="O32" s="4">
-        <f>IFERROR(VLOOKUP(P32,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>27</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q32" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="R32" s="20" t="s">
-        <v>167</v>
+      <c r="Q32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R32" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
@@ -3376,9 +2970,8 @@
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20" t="s">
-        <v>168</v>
+      <c r="R33" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
@@ -3426,15 +3019,13 @@
         <v>4</v>
       </c>
       <c r="O34" s="4">
-        <f>IFERROR(VLOOKUP(P34,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>29</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20" t="s">
-        <v>169</v>
+      <c r="R34" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
@@ -3482,15 +3073,13 @@
         <v>6</v>
       </c>
       <c r="O35" s="4">
-        <f>IFERROR(VLOOKUP(P35,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>30</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20" t="s">
-        <v>170</v>
+      <c r="R35" s="17" t="s">
+        <v>160</v>
       </c>
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
@@ -3538,15 +3127,13 @@
         <v>9</v>
       </c>
       <c r="O36" s="4">
-        <f>IFERROR(VLOOKUP(P36,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>31</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20" t="s">
-        <v>171</v>
+      <c r="R36" s="17" t="s">
+        <v>161</v>
       </c>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
@@ -3558,7 +3145,7 @@
         <v>33</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>79</v>
@@ -3595,11 +3182,11 @@
       </c>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
-      <c r="Q37" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="R37" s="20" t="s">
-        <v>172</v>
+      <c r="Q37" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R37" s="17" t="s">
+        <v>162</v>
       </c>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
@@ -3647,15 +3234,13 @@
         <v>5</v>
       </c>
       <c r="O38" s="4">
-        <f>IFERROR(VLOOKUP(P38,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>33</v>
       </c>
       <c r="P38" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20" t="s">
-        <v>174</v>
+      <c r="R38" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
@@ -3703,15 +3288,13 @@
         <v>7</v>
       </c>
       <c r="O39" s="4">
-        <f>IFERROR(VLOOKUP(P39,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>34</v>
       </c>
       <c r="P39" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20" t="s">
-        <v>175</v>
+      <c r="R39" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
@@ -3759,15 +3342,13 @@
         <v>10</v>
       </c>
       <c r="O40" s="4">
-        <f>IFERROR(VLOOKUP(P40,[1]technique!$E$5:$F$40,2,FALSE),0)</f>
         <v>35</v>
       </c>
       <c r="P40" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20" t="s">
-        <v>176</v>
+      <c r="R40" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
@@ -3781,8 +3362,7 @@
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
+      <c r="R41" s="17"/>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
@@ -3795,8 +3375,7 @@
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
+      <c r="R42" s="17"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
@@ -3809,8 +3388,7 @@
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
+      <c r="R43" s="17"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
@@ -3823,8 +3401,7 @@
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
+      <c r="R44" s="17"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
@@ -3837,8 +3414,7 @@
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
+      <c r="R45" s="17"/>
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
@@ -3851,8 +3427,7 @@
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
+      <c r="R46" s="17"/>
       <c r="T46" s="4"/>
       <c r="V46" s="4"/>
       <c r="X46" s="4"/>
@@ -3863,7 +3438,6 @@
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
-      <c r="Q47" s="20"/>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.15">
       <c r="D48" s="4"/>
@@ -3871,170 +3445,150 @@
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
-      <c r="Q48" s="20"/>
-    </row>
-    <row r="49" spans="4:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
-      <c r="Q49" s="20"/>
-    </row>
-    <row r="50" spans="4:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
-      <c r="Q50" s="20"/>
-    </row>
-    <row r="51" spans="4:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
-      <c r="Q51" s="20"/>
-    </row>
-    <row r="52" spans="4:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
-      <c r="Q52" s="20"/>
-    </row>
-    <row r="53" spans="4:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
-      <c r="Q53" s="20"/>
-    </row>
-    <row r="54" spans="4:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
-      <c r="Q54" s="20"/>
-    </row>
-    <row r="55" spans="4:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
-      <c r="Q55" s="20"/>
-    </row>
-    <row r="56" spans="4:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
-      <c r="Q56" s="20"/>
-    </row>
-    <row r="57" spans="4:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
-      <c r="Q57" s="20"/>
-    </row>
-    <row r="58" spans="4:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
-      <c r="Q58" s="20"/>
-    </row>
-    <row r="59" spans="4:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
-      <c r="Q59" s="20"/>
-    </row>
-    <row r="60" spans="4:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
-      <c r="Q60" s="20"/>
-    </row>
-    <row r="61" spans="4:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
-      <c r="Q61" s="20"/>
-    </row>
-    <row r="62" spans="4:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
-      <c r="Q62" s="20"/>
-    </row>
-    <row r="63" spans="4:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
-      <c r="Q63" s="20"/>
-    </row>
-    <row r="64" spans="4:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
-      <c r="Q64" s="20"/>
-    </row>
-    <row r="65" spans="4:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
-      <c r="Q65" s="20"/>
-    </row>
-    <row r="66" spans="4:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
-      <c r="Q66" s="20"/>
-    </row>
-    <row r="67" spans="4:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
-      <c r="Q67" s="20"/>
-    </row>
-    <row r="68" spans="4:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
-      <c r="Q68" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>